--- a/Datos/Datos para el modelov2.xlsx
+++ b/Datos/Datos para el modelov2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\af.useche10\Dropbox (Uniandes)\COVID_19_MODEL\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{731B6827-B692-4535-AF03-57BBEC59AE5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E4A5B7-2D69-495A-AF31-E02E97A259DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{A439CCA9-7527-49F2-9A4B-6CD01AE4ADE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A439CCA9-7527-49F2-9A4B-6CD01AE4ADE1}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,16 @@
     <sheet name="edad" sheetId="3" r:id="rId6"/>
     <sheet name="transporte" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -280,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +314,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9128E7-3502-4047-982D-73A560025038}">
   <dimension ref="A1:BR8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="W1:AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,98 +654,98 @@
       <c r="B1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11" t="s">
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11" t="s">
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11" t="s">
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11" t="s">
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11" t="s">
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
     </row>
     <row r="2" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2222,6 +2231,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AB1"/>
     <mergeCell ref="BM1:BR1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AN1"/>
@@ -2229,11 +2243,6 @@
     <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="BG1:BL1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2476,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF3FB6F-1CE4-47E5-BD38-BF11575D6478}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,85 +2495,85 @@
     <col min="2" max="25" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -2637,11 +2646,11 @@
         <v>0.19822940176379258</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.14842195203143413</v>
+        <v>6.4106364520080714E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -2714,11 +2723,11 @@
         <v>6.8305506991769793E-2</v>
       </c>
       <c r="Y3" s="1">
-        <v>7.7730217071307367E-2</v>
+        <v>0.14842195203143413</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -2791,11 +2800,11 @@
         <v>7.4015032692231336E-2</v>
       </c>
       <c r="Y4" s="1">
-        <v>4.4846809488354338E-2</v>
+        <v>7.7730217071307367E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -2868,11 +2877,11 @@
         <v>7.2439762536314373E-2</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.17997647944978989</v>
+        <v>4.4846809488354338E-2</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -2945,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>0.17997647944978989</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -3020,6 +3029,9 @@
       </c>
       <c r="X7" s="1">
         <v>0.24174094074939789</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3032,93 +3044,94 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="25" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -3195,7 +3208,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -3272,7 +3285,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -3349,7 +3362,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -3426,7 +3439,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -3503,7 +3516,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -3741,9 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A03B26D-295C-4515-81AB-1D395A84EA02}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
